--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_11_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_11_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1376 +518,771 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_3</t>
+          <t>model_11_8_8</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9455112919775026</v>
+        <v>0.9326158465033192</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8184265020262437</v>
+        <v>0.7947037367123995</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9719960023989895</v>
+        <v>0.9618898954669963</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8765852858215488</v>
+        <v>0.3365523444306006</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9484382852140377</v>
+        <v>0.9546192461703533</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3643662414438705</v>
+        <v>0.4505981447078017</v>
       </c>
       <c r="H2" t="n">
-        <v>1.21418281701959</v>
+        <v>1.372817057906556</v>
       </c>
       <c r="I2" t="n">
-        <v>0.118831848494697</v>
+        <v>0.6139209300037285</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2221540775029601</v>
+        <v>0.130669964754882</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1704928715243318</v>
+        <v>0.3722953192277934</v>
       </c>
       <c r="L2" t="n">
-        <v>1.737600063365234</v>
+        <v>0.9699638644886559</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6036275684922537</v>
+        <v>0.6712660759399374</v>
       </c>
       <c r="N2" t="n">
-        <v>1.029060644278665</v>
+        <v>1.03593821519823</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6293252437642953</v>
+        <v>0.6998432625050395</v>
       </c>
       <c r="P2" t="n">
-        <v>140.0191915187401</v>
+        <v>139.5943587367483</v>
       </c>
       <c r="Q2" t="n">
-        <v>224.121623434646</v>
+        <v>223.6967906526542</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_4</t>
+          <t>model_11_8_9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9463097492340223</v>
+        <v>0.9334257954576568</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8184108752191392</v>
+        <v>0.7946974013868481</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9706030809364151</v>
+        <v>0.9620802305926567</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8769508797061523</v>
+        <v>0.2858889651665517</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9476441083155546</v>
+        <v>0.9541979490938132</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3590269540929655</v>
+        <v>0.4451820123206742</v>
       </c>
       <c r="H3" t="n">
-        <v>1.214287313550652</v>
+        <v>1.37285942225769</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1247425557645651</v>
+        <v>0.6108547952137643</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2214959860207939</v>
+        <v>0.1406484188608276</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1731188799975323</v>
+        <v>0.3757515625989155</v>
       </c>
       <c r="L3" t="n">
-        <v>1.770874528941428</v>
+        <v>0.9717285174056036</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5991885797417751</v>
+        <v>0.6672196132613865</v>
       </c>
       <c r="N3" t="n">
-        <v>1.028634800408522</v>
+        <v>1.035506242422583</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6246972780727352</v>
+        <v>0.6956245335329302</v>
       </c>
       <c r="P3" t="n">
-        <v>140.0487156245468</v>
+        <v>139.6185441279787</v>
       </c>
       <c r="Q3" t="n">
-        <v>224.1511475404526</v>
+        <v>223.7209760438846</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_2</t>
+          <t>model_11_8_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9446562946582857</v>
+        <v>0.9317893414286841</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8183944610048334</v>
+        <v>0.794674861877135</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9733151873478084</v>
+        <v>0.9617144786832297</v>
       </c>
       <c r="E4" t="n">
-        <v>0.875518897589128</v>
+        <v>0.3866289906383469</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9489944593540897</v>
+        <v>0.955048121265569</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3700836124543747</v>
+        <v>0.4561249879475928</v>
       </c>
       <c r="H4" t="n">
-        <v>1.214397075477296</v>
+        <v>1.373010144062926</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1132340339180785</v>
+        <v>0.6167467431666136</v>
       </c>
       <c r="J4" t="n">
-        <v>0.224073641921275</v>
+        <v>0.120807071216743</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1686538379196768</v>
+        <v>0.3687769071916783</v>
       </c>
       <c r="L4" t="n">
-        <v>1.706056291075953</v>
+        <v>0.9679934895638417</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6083449781615483</v>
+        <v>0.6753702598927441</v>
       </c>
       <c r="N4" t="n">
-        <v>1.029516642848914</v>
+        <v>1.036379017904702</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6342434833295959</v>
+        <v>0.7041221700655492</v>
       </c>
       <c r="P4" t="n">
-        <v>139.988052638534</v>
+        <v>139.569976821298</v>
       </c>
       <c r="Q4" t="n">
-        <v>224.0904845544398</v>
+        <v>223.6724087372039</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_5</t>
+          <t>model_11_8_10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9470533834642489</v>
+        <v>0.9342192757760694</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8183491210934382</v>
+        <v>0.794657408644885</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9691393462663259</v>
+        <v>0.9622817995925467</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8766388844334844</v>
+        <v>0.2348605470938974</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9466198728621187</v>
+        <v>0.9537833100287795</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3540542685713193</v>
+        <v>0.4398760057778076</v>
       </c>
       <c r="H5" t="n">
-        <v>1.214700263673567</v>
+        <v>1.373126853907347</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1309537510028548</v>
+        <v>0.6076076923944784</v>
       </c>
       <c r="J5" t="n">
-        <v>0.222057596704303</v>
+        <v>0.1506987695329216</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1765055952047009</v>
+        <v>0.3791531848738672</v>
       </c>
       <c r="L5" t="n">
-        <v>1.805184220715509</v>
+        <v>0.9732856204990162</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5950245949297552</v>
+        <v>0.6632314873238511</v>
       </c>
       <c r="N5" t="n">
-        <v>1.028238195485734</v>
+        <v>1.03508305291943</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6203560238066309</v>
+        <v>0.691466624817675</v>
       </c>
       <c r="P5" t="n">
-        <v>140.0766101530977</v>
+        <v>139.6425247936695</v>
       </c>
       <c r="Q5" t="n">
-        <v>224.1790420690035</v>
+        <v>223.7449567095754</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_1</t>
+          <t>model_11_8_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9437430975157205</v>
+        <v>0.930945906161405</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8183130233404874</v>
+        <v>0.7946091754657048</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9745578460511866</v>
+        <v>0.9615571002227646</v>
       </c>
       <c r="E6" t="n">
-        <v>0.87372938768931</v>
+        <v>0.4359017081648691</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9493047026807943</v>
+        <v>0.9554850718475143</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3761901659515947</v>
+        <v>0.4617650434635495</v>
       </c>
       <c r="H6" t="n">
-        <v>1.214941649513764</v>
+        <v>1.373449389398619</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1079609499507694</v>
+        <v>0.6192819744916164</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2272948698244703</v>
+        <v>0.1111025162175364</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1676279939216505</v>
+        <v>0.3651922453545764</v>
       </c>
       <c r="L6" t="n">
-        <v>1.674179215693924</v>
+        <v>0.9658206790491463</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6133434323049319</v>
+        <v>0.679532959806623</v>
       </c>
       <c r="N6" t="n">
-        <v>1.030003681324949</v>
+        <v>1.036828850047251</v>
       </c>
       <c r="O6" t="n">
-        <v>0.63945473201409</v>
+        <v>0.7084620847327386</v>
       </c>
       <c r="P6" t="n">
-        <v>139.9553210058728</v>
+        <v>139.5453981623892</v>
       </c>
       <c r="Q6" t="n">
-        <v>224.0577529217787</v>
+        <v>223.647830078295</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_6</t>
+          <t>model_11_8_11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.947743719408991</v>
+        <v>0.9349963911422013</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8182428157496658</v>
+        <v>0.7945852558797182</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9676076067488779</v>
+        <v>0.962490802117076</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8756713456908478</v>
+        <v>0.1836891836967138</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9453736371958291</v>
+        <v>0.9533742242879438</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3494379889301243</v>
+        <v>0.4346794317461968</v>
       </c>
       <c r="H7" t="n">
-        <v>1.215411127996863</v>
+        <v>1.373609339780251</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1374535172456627</v>
+        <v>0.6042408419015586</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2237992259601792</v>
+        <v>0.1607772741375246</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1806263716029209</v>
+        <v>0.3825092487032093</v>
       </c>
       <c r="L7" t="n">
-        <v>1.839113010722808</v>
+        <v>0.9746265524023677</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5911328014330827</v>
+        <v>0.6593022309580006</v>
       </c>
       <c r="N7" t="n">
-        <v>1.027870016315205</v>
+        <v>1.034668591390826</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6162985486036817</v>
+        <v>0.6873700918736484</v>
       </c>
       <c r="P7" t="n">
-        <v>140.1028583220087</v>
+        <v>139.6662929161612</v>
       </c>
       <c r="Q7" t="n">
-        <v>224.2052902379145</v>
+        <v>223.7687248320671</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_0</t>
+          <t>model_11_8_5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9427700488367191</v>
+        <v>0.9300850412711206</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8181806025448376</v>
+        <v>0.7945049495854081</v>
       </c>
       <c r="D8" t="n">
-        <v>0.975720700809498</v>
+        <v>0.9614208276537948</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8711937792035094</v>
+        <v>0.484133785414804</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9493607064301322</v>
+        <v>0.9559302553054256</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3826969469485539</v>
+        <v>0.4675216509488003</v>
       </c>
       <c r="H8" t="n">
-        <v>1.215827147984015</v>
+        <v>1.374146348340079</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1030265051465028</v>
+        <v>0.6214772080996356</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2318591210794478</v>
+        <v>0.1016029215149299</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1674428131129753</v>
+        <v>0.3615400425242709</v>
       </c>
       <c r="L8" t="n">
-        <v>1.64197637342668</v>
+        <v>0.9634519400565128</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6186250455231779</v>
+        <v>0.683755549117373</v>
       </c>
       <c r="N8" t="n">
-        <v>1.030522640620416</v>
+        <v>1.037287977988736</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6449611944414833</v>
+        <v>0.7128644384124122</v>
       </c>
       <c r="P8" t="n">
-        <v>139.9210237284896</v>
+        <v>139.5206192382716</v>
       </c>
       <c r="Q8" t="n">
-        <v>224.0234556443955</v>
+        <v>223.6230511541775</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_7</t>
+          <t>model_11_8_12</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9483823752333641</v>
+        <v>0.9357569266216159</v>
       </c>
       <c r="C9" t="n">
-        <v>0.818093505194355</v>
+        <v>0.7944828068181654</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9660104822098539</v>
+        <v>0.9627029660809678</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8740702211294111</v>
+        <v>0.1325732489890056</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9439130122294404</v>
+        <v>0.9529689419541293</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3451672944918019</v>
+        <v>0.429593727493407</v>
       </c>
       <c r="H9" t="n">
-        <v>1.216409568367739</v>
+        <v>1.374294417126588</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1442307375537237</v>
+        <v>0.6008230633459286</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2266813486655723</v>
+        <v>0.1708448617318113</v>
       </c>
       <c r="K9" t="n">
-        <v>0.185456043109648</v>
+        <v>0.3858341100841218</v>
       </c>
       <c r="L9" t="n">
-        <v>1.872664697205375</v>
+        <v>0.9757535438792074</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5875093994922991</v>
+        <v>0.6554339993419681</v>
       </c>
       <c r="N9" t="n">
-        <v>1.027529399875539</v>
+        <v>1.034262972468472</v>
       </c>
       <c r="O9" t="n">
-        <v>0.612520890940803</v>
+        <v>0.683337181629378</v>
       </c>
       <c r="P9" t="n">
-        <v>140.1274521358239</v>
+        <v>139.6898306734017</v>
       </c>
       <c r="Q9" t="n">
-        <v>224.2298840517298</v>
+        <v>223.7922625893075</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_8</t>
+          <t>model_11_8_4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9489710100244024</v>
+        <v>0.9292062203147943</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8179027372583479</v>
+        <v>0.7943604307951767</v>
       </c>
       <c r="D10" t="n">
-        <v>0.964350781002146</v>
+        <v>0.9613086210894654</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8718578717230661</v>
+        <v>0.5310890002799651</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9422458627028369</v>
+        <v>0.9563837204527178</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3412310909337149</v>
+        <v>0.4733983307303527</v>
       </c>
       <c r="H10" t="n">
-        <v>1.217685234434223</v>
+        <v>1.375112746155803</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1512734949939576</v>
+        <v>0.6232847591197604</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2306637136919186</v>
+        <v>0.09235481245917834</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1909686043429381</v>
+        <v>0.3578198982445271</v>
       </c>
       <c r="L10" t="n">
-        <v>1.905836656463135</v>
+        <v>0.9608894313794978</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5841498873865465</v>
+        <v>0.6880394834094572</v>
       </c>
       <c r="N10" t="n">
-        <v>1.027215461320319</v>
+        <v>1.037756682498776</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6090183574495597</v>
+        <v>0.7173307486562769</v>
       </c>
       <c r="P10" t="n">
-        <v>140.150390690403</v>
+        <v>139.4956362160757</v>
       </c>
       <c r="Q10" t="n">
-        <v>224.2528226063088</v>
+        <v>223.5980681319815</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_9</t>
+          <t>model_11_8_13</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.949511026870231</v>
+        <v>0.9365007258296654</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8176719678726183</v>
+        <v>0.7943516707165104</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9626309256878939</v>
+        <v>0.9629141092250397</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8690560315425271</v>
+        <v>0.08170251048611821</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9403796531151133</v>
+        <v>0.9525656047759681</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3376199957991098</v>
+        <v>0.4246199387643002</v>
       </c>
       <c r="H11" t="n">
-        <v>1.219228390379193</v>
+        <v>1.375171324842182</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1585715096934246</v>
+        <v>0.5974217293175668</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2357071983749391</v>
+        <v>0.1808641564740953</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1971393733485468</v>
+        <v>0.3891430137674682</v>
       </c>
       <c r="L11" t="n">
-        <v>1.938655311911275</v>
+        <v>0.9766542705341462</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5810507686933302</v>
+        <v>0.6516286816618035</v>
       </c>
       <c r="N11" t="n">
-        <v>1.026927452335877</v>
+        <v>1.033866279557512</v>
       </c>
       <c r="O11" t="n">
-        <v>0.605787302857513</v>
+        <v>0.6793698636974753</v>
       </c>
       <c r="P11" t="n">
-        <v>140.1716685775031</v>
+        <v>139.7131215437587</v>
       </c>
       <c r="Q11" t="n">
-        <v>224.274100493409</v>
+        <v>223.8155534596645</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_10</t>
+          <t>model_11_8_3</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9500040739601159</v>
+        <v>0.9283085620726282</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8174026223553577</v>
+        <v>0.7941740048372543</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9608535850334399</v>
+        <v>0.9612223923748752</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8656862649997402</v>
+        <v>0.5765376905442655</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9383220098070452</v>
+        <v>0.9568446456478635</v>
       </c>
       <c r="G12" t="n">
-        <v>0.334322987638777</v>
+        <v>0.4794009755290529</v>
       </c>
       <c r="H12" t="n">
-        <v>1.221029505093337</v>
+        <v>1.376359377394843</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1661134570390394</v>
+        <v>0.6246738293756117</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2417729854465739</v>
+        <v>0.08340342239074142</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2039431330299618</v>
+        <v>0.3540385531106165</v>
       </c>
       <c r="L12" t="n">
-        <v>1.971307606090085</v>
+        <v>0.9581433611628009</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5782066997525859</v>
+        <v>0.6923878793920738</v>
       </c>
       <c r="N12" t="n">
-        <v>1.026664493887938</v>
+        <v>1.038235433561265</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6028221560139271</v>
+        <v>0.721864264858294</v>
       </c>
       <c r="P12" t="n">
-        <v>140.191295448836</v>
+        <v>139.4704358441762</v>
       </c>
       <c r="Q12" t="n">
-        <v>224.2937273647419</v>
+        <v>223.5728677600821</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_11</t>
+          <t>model_11_8_2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9504515773724375</v>
+        <v>0.927390941356482</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8170960948991877</v>
+        <v>0.7939440209634681</v>
       </c>
       <c r="D13" t="n">
-        <v>0.959020964836755</v>
+        <v>0.961163768707215</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8617687213223033</v>
+        <v>0.6202389182345835</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9360797350881093</v>
+        <v>0.9573116658335648</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3313305302600186</v>
+        <v>0.4855371094831781</v>
       </c>
       <c r="H13" t="n">
-        <v>1.223079255604175</v>
+        <v>1.37789728061783</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1738899769724974</v>
+        <v>0.6256182061232286</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2488248050576466</v>
+        <v>0.07479620547754277</v>
       </c>
       <c r="K13" t="n">
-        <v>0.211357391015072</v>
+        <v>0.3502072058003857</v>
       </c>
       <c r="L13" t="n">
-        <v>2.003589133633554</v>
+        <v>0.9552139740811149</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5756131776288818</v>
+        <v>0.6968049292902412</v>
       </c>
       <c r="N13" t="n">
-        <v>1.026425825401367</v>
+        <v>1.038724831276543</v>
       </c>
       <c r="O13" t="n">
-        <v>0.600118222284086</v>
+        <v>0.7264693577151803</v>
       </c>
       <c r="P13" t="n">
-        <v>140.2092776420186</v>
+        <v>139.4449991171462</v>
       </c>
       <c r="Q13" t="n">
-        <v>224.3117095579244</v>
+        <v>223.547431033052</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_12</t>
+          <t>model_11_8_1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9508550075099762</v>
+        <v>0.9264522197218754</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8167537913812083</v>
+        <v>0.7936687049555652</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9571357682255525</v>
+        <v>0.9611340378778267</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8573248499668276</v>
+        <v>0.6619565808057479</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9336604877307748</v>
+        <v>0.9577832515356013</v>
       </c>
       <c r="G14" t="n">
-        <v>0.328632791072672</v>
+        <v>0.4918143453762082</v>
       </c>
       <c r="H14" t="n">
-        <v>1.225368240805066</v>
+        <v>1.379738320030391</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1818895990720603</v>
+        <v>0.6260971441542703</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2568240468667722</v>
+        <v>0.06657966352118962</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2193568229694162</v>
+        <v>0.34633840383773</v>
       </c>
       <c r="L14" t="n">
-        <v>2.035499452616083</v>
+        <v>0.9520999861718821</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5732650269052456</v>
+        <v>0.701294763545407</v>
       </c>
       <c r="N14" t="n">
-        <v>1.026210662661346</v>
+        <v>1.039225482815</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5976701059228025</v>
+        <v>0.7311503335098266</v>
       </c>
       <c r="P14" t="n">
-        <v>140.2256285762365</v>
+        <v>139.4193079609987</v>
       </c>
       <c r="Q14" t="n">
-        <v>224.3280604921424</v>
+        <v>223.5217398769046</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_13</t>
+          <t>model_11_8_0</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9512157845033988</v>
+        <v>0.9254908784013526</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8163770234283435</v>
+        <v>0.7933459487488472</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9552000772568566</v>
+        <v>0.9611340600482416</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8523749908564142</v>
+        <v>0.7014357784164766</v>
       </c>
       <c r="F15" t="n">
-        <v>0.931071142389778</v>
+        <v>0.9582571785982394</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3262202736564293</v>
+        <v>0.4982428392131136</v>
       </c>
       <c r="H15" t="n">
-        <v>1.22788768984073</v>
+        <v>1.381896592270869</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1901034883603636</v>
+        <v>0.6260967870079982</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2657340977611373</v>
+        <v>0.05880400056264393</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2279186973055833</v>
+        <v>0.3424503937853211</v>
       </c>
       <c r="L15" t="n">
-        <v>2.067040737468291</v>
+        <v>0.9488135552855076</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5711569606127805</v>
+        <v>0.7058631873196913</v>
       </c>
       <c r="N15" t="n">
-        <v>1.026018248264854</v>
+        <v>1.039738198185945</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5954722948839682</v>
+        <v>0.7359132445421233</v>
       </c>
       <c r="P15" t="n">
-        <v>140.2403648794516</v>
+        <v>139.3933353837357</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.3427967953575</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>model_11_8_14</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9515352455983799</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.8159671059919689</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.9532161067052455</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.8469371479015435</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.928317933872722</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.3240840358433082</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.230628809625263</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.1985222466878707</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.2755225495943482</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2370223981411095</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.098221678951719</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.5692837920082638</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.025847869014197</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.5935193816139638</v>
-      </c>
-      <c r="P16" t="n">
-        <v>140.2535048538672</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>224.3559367697731</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>model_11_8_15</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9518147972069058</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.815525211703044</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.9511861461585049</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.8410303632606104</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.9254076013504622</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.3222146729498789</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.23358375877004</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.2071361584435188</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.2861551253098966</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.2466456418767077</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.129040456064766</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.5676395625305541</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.025698774822984</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.5918051538833639</v>
-      </c>
-      <c r="P17" t="n">
-        <v>140.265074538789</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>224.3675064546948</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>model_11_8_16</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.9520556786871154</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.8150526233719556</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.9491121966123917</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.8346743019618355</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.9223467106478341</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.3206038973825601</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.236743959116097</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.2159367326244168</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.2975964266472713</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.2567667180953611</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.159504720207234</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.566218948272274</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.025570304700205</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.5903240611350317</v>
-      </c>
-      <c r="P18" t="n">
-        <v>140.2750977647071</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>224.377529680613</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>model_11_8_17</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9522592231514249</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8145504706924989</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.9469963811580924</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.827885158081706</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.919141125762142</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.3192427946124863</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.240101856395825</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.2249149601292985</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.3098173032725996</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.2673662370280683</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.189616479131756</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.5650157472252312</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.025461747652573</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.5890696373284466</v>
-      </c>
-      <c r="P19" t="n">
-        <v>140.283606708116</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>224.3860386240218</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>model_11_8_18</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.95242660424545</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.814019944643136</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.9448403806688405</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.8206821978766977</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.9157971393381261</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.3181235164660212</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.243649486530762</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.234063708359588</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.3227830747390424</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.2784233915493152</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.219380486669373</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.5640243935026403</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.02537247773576</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.5880360796255</v>
-      </c>
-      <c r="P20" t="n">
-        <v>140.2906311101127</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>224.3930630260185</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>model_11_8_19</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.9525590277184757</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.813462103795775</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.9426462857899629</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.8130799794904835</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.9123200018073898</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.3172380000921445</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.247379770845686</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.2433741058944154</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.3364675354924292</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.2899208206934223</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.248800611803778</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.5632388481737961</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.02530185188348</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.5872170920057039</v>
-      </c>
-      <c r="P21" t="n">
-        <v>140.2962059957433</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>224.3986379116492</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>model_11_8_20</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9526576964002611</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.812878067388465</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.9404158773318586</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.8050962359317312</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.9087157145136584</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.316578202162718</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.251285224990608</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.2528385960629614</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.3508387650262939</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.3018386805446276</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.277880991936416</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.5626528256062685</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.025249228586527</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.5866061212442428</v>
-      </c>
-      <c r="P22" t="n">
-        <v>140.3003699673516</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>224.4028018832574</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>model_11_8_21</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.9527237462018905</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.812268807008342</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.9381509246548709</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.7967464232742221</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.9049895680390605</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.3161365268350906</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.255359351957877</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.2624496707814417</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.3658689414570337</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.3141594773763774</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.306628652475591</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.5622601949587848</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.025214002025658</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.5861967754972381</v>
-      </c>
-      <c r="P23" t="n">
-        <v>140.3031622235083</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>224.4055941394141</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_11_8_22</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.9527582070537983</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.8116353228416036</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.935852970702066</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.7880450897028248</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.9011466677326799</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.3159060869597058</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.259595463497784</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.2722007827426016</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.3815318771569392</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.3268663299497704</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.335046206226994</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.5620552347943267</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.025195622904641</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.5859830897542532</v>
-      </c>
-      <c r="P24" t="n">
-        <v>140.3046206054627</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>224.4070525213685</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_11_8_23</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9527622266342678</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.8109786594155238</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.9335238719427786</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.7790079586303537</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.8971922897574014</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.3158792080065974</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.263986574851636</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.2820840542253427</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.3977992690157029</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.3399417922166182</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.363135677600578</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.5620313229763955</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.025193479128391</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.5859581599607282</v>
-      </c>
-      <c r="P25" t="n">
-        <v>140.3047907832325</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>224.4072226991384</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_11_8_24</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.95273678861938</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.8102996892324614</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.9311654084892717</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.7696479884075302</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.8931312372536904</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.3160493121292836</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.268526851592144</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.2920919315213082</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.4146477912048794</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.3533699822146215</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.390901620095009</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.5621826323618363</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.025207046069664</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.5861159108999608</v>
-      </c>
-      <c r="P26" t="n">
-        <v>140.3037140530558</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>224.4061459689616</v>
+        <v>223.4957672996415</v>
       </c>
     </row>
   </sheetData>
